--- a/club_1.xlsx
+++ b/club_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF3999-B159-4C3B-99D7-9F02E5D6B81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC35F14-DEE5-4B75-BF4B-FF40DC54A54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/club_1.xlsx
+++ b/club_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC35F14-DEE5-4B75-BF4B-FF40DC54A54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7649E-AF45-4078-B3ED-A4231EF0A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Club ID</t>
   </si>
@@ -63,16 +63,22 @@
     <t>Event 1</t>
   </si>
   <si>
-    <t>AWS Student Club</t>
-  </si>
-  <si>
-    <t>images1/Student Club/aws.webp</t>
-  </si>
-  <si>
-    <t>Together as a team AWS Cloud Club CHARUSAT aims to provide a platform for the intellectuals to learn and explore the cloud fundamentals of AWS. AS part of the club we assure that every individual gets something productive out of this cub. AWS Cloud Club CHARUSAT intends to bring developers under one roof to create a community to inspire many. The club will be channeled into propagating learning and teaching symbiotically.</t>
-  </si>
-  <si>
-    <t>AWS Cloud Bootcamp;15-17 Nov 2023;A three-day coding event;images1/gallery/AWS Commuinity Day/aws2.webp:images1/gallery/AWS Commuinity Day/aws1.webp:images1/gallery/AWS Commuinity Day/aws3.webp:images1/gallery/AWS Commuinity Day/aws5.webp</t>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>AWS Club</t>
+  </si>
+  <si>
+    <t>aws_logo.jpg</t>
+  </si>
+  <si>
+    <t>The AWS Cloud Club helps students learn cloud computing skills through hands-on workshops and certification preparation.</t>
+  </si>
+  <si>
+    <t>Hackathon;2023-09-15;Introductory AWS workshop;img1.jpg:img2.jpg;report1.pdf</t>
+  </si>
+  <si>
+    <t>gallery1.jpg:gallery2.jpg:gallery3.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,21 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="48.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +466,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -485,17 +495,18 @@
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{28DC1589-4BCF-4211-9868-5BEBB57E37F1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>